--- a/03.database/개인프로젝트 구상.xlsx
+++ b/03.database/개인프로젝트 구상.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>유저정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -302,7 +302,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>혜택</t>
+    <t>wrose46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백장미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4214-7902</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrose46@asdf.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소주소주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_232gf423r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총좌석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷예매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매마감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장구매-A부스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +398,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +464,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,12 +577,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,9 +640,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,21 +948,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="0.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="17.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" ht="25.5" customHeight="1">
@@ -882,8 +1018,8 @@
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -918,10 +1054,10 @@
         <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -956,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -988,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1013,8 +1149,11 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>30</v>
@@ -1026,41 +1165,85 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="17.25" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="17.25" thickTop="1">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5"/>
+      <c r="N8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="19">
+        <v>12345</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="5" t="s">
-        <v>69</v>
+      <c r="A9" s="5"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="N11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="N12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="25">
+        <v>70000</v>
+      </c>
+      <c r="P12" s="2">
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" thickBot="1">
@@ -1114,9 +1297,75 @@
         <v>18500</v>
       </c>
     </row>
+    <row r="16" spans="1:20">
+      <c r="M16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="13:19">
+      <c r="M17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="26">
+        <v>45020</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>19500</v>
+      </c>
+      <c r="R17" s="25">
+        <v>50000</v>
+      </c>
+      <c r="S17" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19">
+      <c r="M18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="26">
+        <v>45023</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>17000</v>
+      </c>
+      <c r="R18" s="25">
+        <v>20378</v>
+      </c>
+      <c r="S18" s="2">
+        <v>792</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="R8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>